--- a/tests/002_DataSourceAndFilters.xlsx
+++ b/tests/002_DataSourceAndFilters.xlsx
@@ -19,22 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data Source</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>foobizzle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -68,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -400,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -414,19 +446,38 @@
     <col min="7" max="7" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
